--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352405.5308958448</v>
+        <v>415743.6291020454</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10371074.99261923</v>
+        <v>10516019.3324238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10631090.30606525</v>
+        <v>10791186.65737767</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8190829.523966232</v>
+        <v>8096802.402732471</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>33.89412103271892</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>33.89412103271893</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.89412103271893</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>33.89412103271893</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>321.9150544693125</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6164874046647</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>57.54882572755202</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>23.04372042007365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>26.64860191565645</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>278.5238702603284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838602</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
         <v>192.0665623188214</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>151.5672303569912</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>176.1581058090408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>99.20235183526381</v>
       </c>
       <c r="C17" t="n">
-        <v>323.2455444032058</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.547702772954</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
         <v>251.045250128462</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>151.3804504940401</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>37.22714438782162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>193.1994278308462</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>319.6548066540189</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
-        <v>92.83156789269653</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.32177372736409</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>67.13377905320756</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>201.9062000222456</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>297.9420680945599</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>89.77624614639048</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.51363812600135</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>166.5847305737477</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>249.3986506536349</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838597</v>
       </c>
       <c r="T27" t="n">
         <v>192.0665623188214</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>30.5569292737021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>202.5165419428483</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>65.70991267247049</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>166.4340902500773</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>197.388728673704</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>41.28371368070811</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>35.33415019398279</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>229.1206745224523</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>5.725335444199549</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H33" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I33" t="n">
         <v>20.22295923705013</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>145.553149186665</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>191.6663996637064</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>293.7078874992795</v>
       </c>
       <c r="C35" t="n">
-        <v>120.4846430892119</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>150.5850684549502</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>149.335521491616</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>55.41533145472906</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>193.1994278308462</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.3108534087816</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>44.44938732291659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>107.968129326517</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.93061033756637</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.7543719049327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>5.229604997293793</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>141.1483400922264</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.6650899576966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>39.69917230579335</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>186.1075578061197</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.13746967538605</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.73798302460185</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640911</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640911</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640911</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>37.31497099905752</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>37.31497099905752</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>77.7317489624117</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>115.828002166762</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419155</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48135862876944</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>85.57761183311973</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>123.67386503747</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>119.687769479477</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>80.81800802212541</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>80.81800802212541</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.94824656477383</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>39.68786127616095</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>77.78411448051124</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>115.8803676848615</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>149.0567829434387</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.687769479477</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>80.81800802212541</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>80.81800802212541</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>41.94824656477383</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>41.94824656477383</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>41.94824656477383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>79.27099151612285</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>117.3672447204731</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>41.94824656477384</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>37.31497099905754</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>41.17473831177254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>77.73174896241173</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>115.828002166762</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.18473245640914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>39.68786127616096</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>77.78411448051125</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>115.8803676848616</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>149.0567829434387</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.9242553711123</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.0544939137607</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>80.81800802212544</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>80.81800802212544</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.94824656477384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.078485107422246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1579.968004989121</v>
+        <v>1550.959102576163</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.005488048709</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D11" t="n">
-        <v>852.7397894419585</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E11" t="n">
-        <v>466.9515368437143</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H11" t="n">
         <v>51.24678656800313</v>
@@ -5047,13 +5047,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O11" t="n">
         <v>2055.228484740841</v>
@@ -5071,22 +5071,22 @@
         <v>2437.640120926627</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U11" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V11" t="n">
-        <v>2322.875992235046</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W11" t="n">
-        <v>1970.107336964932</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.107336964932</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.968004989121</v>
+        <v>1876.125824262337</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K12" t="n">
-        <v>614.5430248380233</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2465818694951</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M12" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.793729425661</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q12" t="n">
         <v>2562.339328400156</v>
@@ -5147,25 +5147,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>813.841548125043</v>
+        <v>427.4800176695876</v>
       </c>
       <c r="C13" t="n">
-        <v>644.9053651971361</v>
+        <v>427.4800176695876</v>
       </c>
       <c r="D13" t="n">
-        <v>494.7887257848004</v>
+        <v>277.3633782572518</v>
       </c>
       <c r="E13" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F13" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G13" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H13" t="n">
         <v>51.24678656800313</v>
@@ -5241,10 +5241,10 @@
         <v>1057.910612541375</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.634127268573</v>
+        <v>829.9210616433575</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.841548125043</v>
+        <v>609.1284824998273</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1263.725694231566</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.725694231566</v>
+        <v>1275.288014512647</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.725694231566</v>
+        <v>1275.288014512647</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5296,34 +5296,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V14" t="n">
-        <v>1897.831592188881</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W14" t="n">
-        <v>1545.062936918767</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X14" t="n">
-        <v>1545.062936918767</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y14" t="n">
-        <v>1263.725694231566</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
         <v>607.9167021542605</v>
@@ -5348,40 +5348,40 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K15" t="n">
-        <v>684.9695361605191</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L15" t="n">
-        <v>979.6730931919908</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M15" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N15" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P15" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
         <v>2426.617474780096</v>
@@ -5396,7 +5396,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X15" t="n">
         <v>1307.279776881661</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>833.0891146802707</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="C16" t="n">
-        <v>664.1529317523638</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="D16" t="n">
-        <v>514.036292340028</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="E16" t="n">
-        <v>366.1231987576349</v>
+        <v>204.3449990498124</v>
       </c>
       <c r="F16" t="n">
-        <v>219.2332512597245</v>
+        <v>204.3449990498124</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U16" t="n">
-        <v>1413.467639269233</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V16" t="n">
-        <v>1235.53015865404</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W16" t="n">
-        <v>1235.53015865404</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X16" t="n">
-        <v>1235.53015865404</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="Y16" t="n">
-        <v>1014.73757951051</v>
+        <v>352.2580926322055</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.250440354288</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C17" t="n">
-        <v>852.7397894419585</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D17" t="n">
-        <v>852.7397894419585</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E17" t="n">
-        <v>466.9515368437143</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
         <v>466.9515368437143</v>
@@ -5515,16 +5515,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N17" t="n">
         <v>1656.671415230817</v>
@@ -5545,22 +5545,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U17" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V17" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.989612394221</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X17" t="n">
-        <v>1955.989612394221</v>
+        <v>1726.54686800908</v>
       </c>
       <c r="Y17" t="n">
-        <v>1565.850280418409</v>
+        <v>1336.407536033268</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G18" t="n">
         <v>165.443278618252</v>
@@ -5597,22 +5597,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L18" t="n">
-        <v>932.4978103100998</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M18" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N18" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O18" t="n">
-        <v>2015.115393042427</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P18" t="n">
-        <v>2262.298126874724</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.339328400155</v>
@@ -5636,7 +5636,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771.7836012132566</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C19" t="n">
-        <v>602.8474182853497</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D19" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E19" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F19" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
         <v>51.24678656800311</v>
@@ -5703,22 +5703,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T19" t="n">
-        <v>1439.817372234359</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.817372234359</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V19" t="n">
-        <v>1439.817372234359</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W19" t="n">
-        <v>1402.214196085044</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X19" t="n">
-        <v>1174.224645187026</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y19" t="n">
-        <v>953.4320660434963</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1139.973197786556</v>
+        <v>1216.983460896266</v>
       </c>
       <c r="C20" t="n">
-        <v>771.0106808461439</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="D20" t="n">
-        <v>771.0106808461439</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E20" t="n">
-        <v>771.0106808461439</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F20" t="n">
-        <v>771.0106808461439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G20" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J20" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
@@ -5779,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926626</v>
+        <v>2367.18839119728</v>
       </c>
       <c r="U20" t="n">
-        <v>2184.059060190806</v>
+        <v>2367.18839119728</v>
       </c>
       <c r="V20" t="n">
-        <v>1852.996172847235</v>
+        <v>2367.18839119728</v>
       </c>
       <c r="W20" t="n">
-        <v>1852.996172847235</v>
+        <v>2367.18839119728</v>
       </c>
       <c r="X20" t="n">
-        <v>1530.112529762367</v>
+        <v>1993.7226329362</v>
       </c>
       <c r="Y20" t="n">
-        <v>1139.973197786556</v>
+        <v>1603.583300960388</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H21" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0008189145203</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>614.543024838023</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L21" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M21" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O21" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>981.8280128167644</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C22" t="n">
-        <v>812.8918298888575</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D22" t="n">
-        <v>662.7751904765217</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E22" t="n">
-        <v>514.8620968941286</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q22" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S22" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U22" t="n">
-        <v>1347.327782578335</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.327782578335</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W22" t="n">
-        <v>1057.910612541375</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="X22" t="n">
-        <v>1057.910612541375</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y22" t="n">
-        <v>1057.910612541375</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1467.671350819693</v>
+        <v>1614.225191671744</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.725694231566</v>
+        <v>1245.262674731332</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.725694231566</v>
+        <v>1245.262674731332</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F23" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6019,22 +6019,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V23" t="n">
-        <v>2231.276441056585</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W23" t="n">
-        <v>2231.276441056585</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X23" t="n">
-        <v>1857.810682795505</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y23" t="n">
-        <v>1467.671350819693</v>
+        <v>2000.825031735866</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D24" t="n">
         <v>607.9167021542605</v>
@@ -6056,10 +6056,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H24" t="n">
         <v>71.67401812057901</v>
@@ -6068,22 +6068,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L24" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M24" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N24" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O24" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P24" t="n">
         <v>2447.023413292609</v>
@@ -6107,7 +6107,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X24" t="n">
         <v>1307.279776881661</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>518.2127024906389</v>
+        <v>309.9163281752705</v>
       </c>
       <c r="C25" t="n">
-        <v>349.2765195627319</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D25" t="n">
-        <v>199.1598801503962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1568.250526007829</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S25" t="n">
-        <v>1371.621778167691</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T25" t="n">
-        <v>1148.643297362426</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U25" t="n">
-        <v>1148.643297362426</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V25" t="n">
-        <v>1148.643297362426</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W25" t="n">
-        <v>1148.643297362426</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X25" t="n">
-        <v>920.6537464644088</v>
+        <v>530.7089073188006</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.8611673208786</v>
+        <v>309.9163281752705</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1785.600156360222</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C26" t="n">
-        <v>1416.63763941981</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D26" t="n">
-        <v>1416.63763941981</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E26" t="n">
-        <v>1248.370234799863</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F26" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X26" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.199996424344</v>
+        <v>1164.26325471341</v>
       </c>
     </row>
     <row r="27">
@@ -6302,34 +6302,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L27" t="n">
-        <v>717.8525085495378</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M27" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O27" t="n">
-        <v>1800.470091281865</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>199.9856847044969</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C28" t="n">
-        <v>199.9856847044969</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D28" t="n">
-        <v>199.9856847044969</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E28" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G28" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J28" t="n">
         <v>76.71595955312199</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.817372234359</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U28" t="n">
-        <v>1150.699034738196</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V28" t="n">
-        <v>1119.833449613245</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W28" t="n">
-        <v>830.4162795762841</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="X28" t="n">
-        <v>602.4267286782667</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y28" t="n">
-        <v>381.6341495347366</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1634.158487398107</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="C29" t="n">
-        <v>1634.158487398107</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="D29" t="n">
-        <v>1634.158487398107</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E29" t="n">
-        <v>1248.370234799863</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F29" t="n">
-        <v>837.3843300102556</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
         <v>795.7553530872915</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U29" t="n">
-        <v>2394.224085723309</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V29" t="n">
-        <v>2394.224085723309</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W29" t="n">
-        <v>2394.224085723309</v>
+        <v>1653.613618631372</v>
       </c>
       <c r="X29" t="n">
-        <v>2020.758327462229</v>
+        <v>1280.147860370292</v>
       </c>
       <c r="Y29" t="n">
-        <v>2020.758327462229</v>
+        <v>890.0085283944807</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G30" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0008189145198</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.8033708781534</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="C31" t="n">
-        <v>537.8671879502465</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="D31" t="n">
-        <v>387.7505485379107</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="E31" t="n">
-        <v>239.8374549555176</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="F31" t="n">
-        <v>92.94750745760726</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="G31" t="n">
-        <v>51.2467865680031</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="H31" t="n">
-        <v>51.2467865680031</v>
+        <v>86.93784737000593</v>
       </c>
       <c r="I31" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N31" t="n">
         <v>1123.088724245823</v>
@@ -6645,28 +6645,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S31" t="n">
         <v>1337.233965749941</v>
       </c>
       <c r="T31" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.233965749941</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V31" t="n">
-        <v>1337.233965749941</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W31" t="n">
-        <v>1337.233965749941</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X31" t="n">
-        <v>1109.244414851923</v>
+        <v>307.730426513536</v>
       </c>
       <c r="Y31" t="n">
-        <v>888.4518357083931</v>
+        <v>86.93784737000593</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1380.34282005186</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="C32" t="n">
-        <v>1011.380303111449</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D32" t="n">
-        <v>653.1146045046983</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E32" t="n">
-        <v>653.1146045046983</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F32" t="n">
-        <v>421.6795797345444</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G32" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H32" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362817</v>
@@ -6706,7 +6706,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926625</v>
+        <v>2556.556161284802</v>
       </c>
       <c r="T32" t="n">
-        <v>2437.640120926625</v>
+        <v>2347.810519890627</v>
       </c>
       <c r="U32" t="n">
-        <v>2437.640120926625</v>
+        <v>2347.810519890627</v>
       </c>
       <c r="V32" t="n">
-        <v>2106.577233583054</v>
+        <v>2016.747632547056</v>
       </c>
       <c r="W32" t="n">
-        <v>1753.80857831294</v>
+        <v>1663.978977276942</v>
       </c>
       <c r="X32" t="n">
-        <v>1380.34282005186</v>
+        <v>1663.978977276942</v>
       </c>
       <c r="Y32" t="n">
-        <v>1380.34282005186</v>
+        <v>1663.978977276942</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G33" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0008189145198</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L33" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6812,16 +6812,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>643.1898500774756</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C34" t="n">
-        <v>496.1664670606423</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D34" t="n">
-        <v>346.0498276483066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E34" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F34" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G34" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H34" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I34" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N34" t="n">
         <v>1123.088724245823</v>
@@ -6882,28 +6882,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1114.255484944676</v>
+        <v>1442.843696171764</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.255484944676</v>
+        <v>1153.725358675601</v>
       </c>
       <c r="V34" t="n">
-        <v>1114.255484944676</v>
+        <v>899.0408704697145</v>
       </c>
       <c r="W34" t="n">
-        <v>824.8383149077154</v>
+        <v>609.6237004327539</v>
       </c>
       <c r="X34" t="n">
-        <v>824.8383149077154</v>
+        <v>381.6341495347366</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.8383149077154</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1287.435190625612</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="C35" t="n">
-        <v>1165.733530939539</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="D35" t="n">
-        <v>807.4678323327887</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E35" t="n">
-        <v>421.6795797345444</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F35" t="n">
-        <v>421.6795797345444</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G35" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J35" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872917</v>
@@ -6949,40 +6949,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O35" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.640120926625</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X35" t="n">
-        <v>2064.174362665545</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1674.035030689734</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4273302370161</v>
+        <v>114.543262603435</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5430248380226</v>
+        <v>299.264883884485</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159566</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P36" t="n">
         <v>2239.046898434118</v>
@@ -7049,7 +7049,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
@@ -7058,7 +7058,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>648.2725968131173</v>
+        <v>813.841548125043</v>
       </c>
       <c r="C37" t="n">
-        <v>496.1664670606423</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D37" t="n">
-        <v>346.0498276483066</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E37" t="n">
-        <v>198.1367340659135</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F37" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7125,22 +7125,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U37" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V37" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.910612541374</v>
+        <v>1262.62367816659</v>
       </c>
       <c r="X37" t="n">
-        <v>829.921061643357</v>
+        <v>1034.634127268573</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.921061643357</v>
+        <v>813.841548125043</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.983460896266</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="C38" t="n">
-        <v>848.0209439558548</v>
+        <v>863.4429146102927</v>
       </c>
       <c r="D38" t="n">
-        <v>848.0209439558548</v>
+        <v>863.4429146102927</v>
       </c>
       <c r="E38" t="n">
-        <v>462.2326913576106</v>
+        <v>477.6546620120485</v>
       </c>
       <c r="F38" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G38" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H38" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923562</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W38" t="n">
-        <v>2367.18839119728</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X38" t="n">
-        <v>1993.7226329362</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y38" t="n">
-        <v>1603.583300960388</v>
+        <v>1232.405431550704</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
         <v>238.4273302370161</v>
@@ -7286,7 +7286,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
@@ -7295,7 +7295,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>665.1026499885492</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C40" t="n">
         <v>496.1664670606423</v>
@@ -7320,28 +7320,28 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N40" t="n">
         <v>1123.088724245823</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>1457.344247944415</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.467639269233</v>
+        <v>1234.36576713915</v>
       </c>
       <c r="U40" t="n">
-        <v>1413.467639269233</v>
+        <v>1234.36576713915</v>
       </c>
       <c r="V40" t="n">
-        <v>1158.783151063346</v>
+        <v>1234.36576713915</v>
       </c>
       <c r="W40" t="n">
-        <v>1113.884780030097</v>
+        <v>944.9485971021898</v>
       </c>
       <c r="X40" t="n">
-        <v>885.8952291320793</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.1026499885492</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.688211171978</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.725694231566</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D41" t="n">
         <v>1263.725694231566</v>
@@ -7402,22 +7402,22 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U41" t="n">
-        <v>2437.640120926625</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.640120926625</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W41" t="n">
-        <v>2409.427383211912</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X41" t="n">
-        <v>2409.427383211912</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y41" t="n">
-        <v>2019.2880512361</v>
+        <v>2100.01262627016</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G42" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380226</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>220.18296949591</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C43" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D43" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E43" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7596,25 +7596,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T43" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U43" t="n">
-        <v>1124.34930177307</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V43" t="n">
-        <v>869.6648135671836</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="W43" t="n">
-        <v>580.2476435302231</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X43" t="n">
-        <v>352.2580926322057</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y43" t="n">
-        <v>352.2580926322057</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.725694231566</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.725694231566</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.725694231566</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>564.2536606357833</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J44" t="n">
         <v>187.5281822362817</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U44" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V44" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W44" t="n">
-        <v>2184.059060190805</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X44" t="n">
-        <v>1810.593301929725</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.325534295688</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G45" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>560.1394111735141</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L45" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7760,16 +7760,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C46" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D46" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E46" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7839,19 +7839,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>1124.34930177307</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>1084.249127726815</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W46" t="n">
-        <v>794.831957689854</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X46" t="n">
-        <v>566.8424067918367</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y46" t="n">
-        <v>346.0498276483066</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>246.6698164773692</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403532</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4501999472249</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786172</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>129.8481964236088</v>
@@ -8069,16 +8069,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>147.1059453792048</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>158.4618986107626</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M4" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>241.2180059126716</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>244.8579146936526</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>249.4684271639325</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664799</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1585617237782</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>160.6795236990645</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>161.5285106728731</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>142.3059096569611</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>167.5073133874343</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>156.5024627066172</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8458,19 +8458,19 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L8" t="n">
-        <v>252.0299206180583</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M8" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N8" t="n">
-        <v>242.7727963709656</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O8" t="n">
-        <v>244.8579146936526</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P8" t="n">
-        <v>247.9136367056385</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q8" t="n">
         <v>207.1020630664798</v>
@@ -8537,19 +8537,19 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L9" t="n">
-        <v>160.6795236990645</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M9" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N9" t="n">
-        <v>148.6762332094833</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O9" t="n">
-        <v>163.154682530332</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P9" t="n">
-        <v>158.0709840006057</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q9" t="n">
         <v>130.3661252938572</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M10" t="n">
-        <v>167.5073133874343</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N10" t="n">
-        <v>156.5024627066172</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>193.3273467878354</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>20.93778120154985</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>54.95314511566596</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.9393975111066</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L18" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.591198401904</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>20.9377812015499</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>54.95314511566558</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9393975111055</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>193.327346787835</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>20.9377812015499</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>54.95314511566511</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>54.95314511566511</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R33" t="n">
         <v>20.9377812015499</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883067102</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878349</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.7939291895252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>114.1633278574103</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>335.7911882045137</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>352.2980261820982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.14454955308224</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>140.8694464262256</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>166.0252945351195</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.74710999203386</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -22764,10 +22764,10 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>222.2433684167681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.2527778207025</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.4493062294837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>381.2678274946005</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>331.2500368356909</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268741</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>192.0423052094749</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3195233066472</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.2016319345263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.97971185038753</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>135.9727348210014</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>189.1946896422577</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>248.0419344938129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23071,16 +23071,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>167.3307766836197</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>183.9984819271906</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>217.4402687560923</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>289.2711946273568</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23111,10 +23111,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.5881485506058</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>103.3740673810204</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
         <v>111.5079271034444</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.99978005760149</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
         <v>170.2839726213331</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>213.2139193181415</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23226,22 +23226,22 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9727348210014</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>193.7816324523168</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
-        <v>213.6565794810499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>248.0419344938129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>60.81878719416812</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247044</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>214.1357710654702</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>88.88513691901716</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>202.6659349689635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.2817681566053</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.7140683957252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>14.73936968781302</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.97953751478721</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>283.5314898282168</v>
       </c>
       <c r="C17" t="n">
-        <v>42.02734736780178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>69.36824550317186</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>249.2958539487694</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247049</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>13.45875714938757</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>50.07629402445014</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.5102064545732</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I22" t="n">
         <v>104.7965952039006</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>158.5758763358296</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>163.366691748762</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>83.98830197770184</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.47057495223736</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.04393429357228</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>215.345639498514</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>136.8392880024186</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24651,25 +24651,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>221.5807140501259</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>23.19311344618882</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>84.61115987838468</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>151.852240043709</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>125.0228863640961</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>69.46244500991779</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>177.7553712192591</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>117.7268799545948</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>21.69367191196284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>29.0822963335055</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>89.0259541642011</v>
       </c>
       <c r="C35" t="n">
-        <v>244.7882486817957</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>16.6617526436776</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>104.7965952039006</v>
@@ -25365,22 +25365,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>137.187476844975</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>351.4607142869824</v>
       </c>
       <c r="G38" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>156.0415408865668</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>17.35160695295582</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>242.0736110136744</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>274.7657123369635</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>321.3103583798467</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.07760827700457</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -25836,25 +25836,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>246.9080383265342</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>270.3993626807276</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>227.572848698357</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>212.4384710180346</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364957.0332821836</v>
+        <v>335062.3006182676</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369168.9846950216</v>
+        <v>335062.3006182676</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>369168.9846950216</v>
+        <v>335274.3446576996</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821662.0512459928</v>
+        <v>821662.0512459925</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821662.0512459927</v>
+        <v>821662.0512459925</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459923</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459928</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821662.0512459923</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100912.23957147</v>
+        <v>92739.38510646019</v>
       </c>
       <c r="C2" t="n">
-        <v>102516.5301201475</v>
+        <v>92739.38510646019</v>
       </c>
       <c r="D2" t="n">
-        <v>102516.5301201475</v>
+        <v>93250.14987573418</v>
       </c>
       <c r="E2" t="n">
         <v>260075.8859201623</v>
@@ -26334,7 +26334,7 @@
         <v>260075.8859201622</v>
       </c>
       <c r="I2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="J2" t="n">
         <v>260075.8859201623</v>
@@ -26343,16 +26343,16 @@
         <v>260075.8859201622</v>
       </c>
       <c r="L2" t="n">
+        <v>260075.8859201623</v>
+      </c>
+      <c r="M2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="M2" t="n">
-        <v>260075.8859201621</v>
-      </c>
       <c r="N2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="O2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="P2" t="n">
         <v>260075.8859201622</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33550.04001897445</v>
+        <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>12401.51063995663</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10283.71485718501</v>
       </c>
       <c r="E3" t="n">
-        <v>902069.2895150967</v>
+        <v>913558.8885951457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335576</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491139</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150046.6674647825</v>
+        <v>159636.3024986581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50377.71742942038</v>
+        <v>45933.62940400945</v>
       </c>
       <c r="C4" t="n">
-        <v>49591.9949979655</v>
+        <v>45933.62940400945</v>
       </c>
       <c r="D4" t="n">
-        <v>49591.99499796549</v>
+        <v>44553.28916276351</v>
       </c>
       <c r="E4" t="n">
         <v>11359.04569987402</v>
@@ -26432,22 +26432,22 @@
         <v>11359.04569987402</v>
       </c>
       <c r="G4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="H4" t="n">
         <v>11359.04569987402</v>
       </c>
       <c r="I4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="J4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="K4" t="n">
         <v>11359.04569987401</v>
       </c>
       <c r="L4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="M4" t="n">
         <v>11359.04569987401</v>
@@ -26456,7 +26456,7 @@
         <v>11359.04569987401</v>
       </c>
       <c r="O4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="P4" t="n">
         <v>11359.04569987402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36192.83842098849</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="C5" t="n">
-        <v>36730.71216531784</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
-        <v>36730.71216531784</v>
+        <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984474</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984474</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>59310.17243984471</v>
@@ -26493,7 +26493,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984471</v>
@@ -26502,7 +26502,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="N5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33798.38645208096</v>
+        <v>-11006.60940100321</v>
       </c>
       <c r="C6" t="n">
-        <v>-10703.347804985</v>
+        <v>11169.38532996191</v>
       </c>
       <c r="D6" t="n">
-        <v>1698.162834971623</v>
+        <v>2518.008240834685</v>
       </c>
       <c r="E6" t="n">
-        <v>-717890.0844565448</v>
+        <v>-724674.9670868913</v>
       </c>
       <c r="F6" t="n">
-        <v>184179.2050585519</v>
+        <v>188883.9215082546</v>
       </c>
       <c r="G6" t="n">
-        <v>184179.205058552</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="H6" t="n">
-        <v>184179.2050585518</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="I6" t="n">
-        <v>184179.2050585518</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="J6" t="n">
-        <v>175299.0305992163</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="K6" t="n">
-        <v>183010.4580130607</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="L6" t="n">
-        <v>184179.2050585519</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="M6" t="n">
-        <v>34132.53759376927</v>
+        <v>29247.61900959614</v>
       </c>
       <c r="N6" t="n">
-        <v>184179.2050585517</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="O6" t="n">
-        <v>184179.2050585518</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="P6" t="n">
-        <v>184179.2050585518</v>
+        <v>188883.9215082543</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912532</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26749,13 +26749,13 @@
         <v>934.0648921175394</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="K4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="K4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="L4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>12.007878032336</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233601</v>
       </c>
       <c r="E3" t="n">
         <v>899.0436313984142</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.541151368822732</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>602.103768257261</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395536</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822618</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>602.103768257261</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822732</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>602.103768257261</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760118</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884598</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470701</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677232</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081217</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411506</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>8.843836255870377</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847512</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727678</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779988</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335884</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>19.0865870919233</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833408</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164373</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263568</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227321</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174387</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170844</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894682</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948817</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394047</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179684</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938411</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587923</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390062</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025626</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31688,7 +31688,7 @@
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31697,7 +31697,7 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P10" t="n">
         <v>7.638079550938413</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,25 +32153,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32180,16 +32180,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I20" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L20" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T20" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U20" t="n">
         <v>0.3004027793744847</v>
@@ -32545,10 +32545,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J21" t="n">
         <v>189.8178475575841</v>
@@ -32557,7 +32557,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M21" t="n">
         <v>509.0653662040588</v>
@@ -32566,25 +32566,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P21" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R21" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
@@ -32642,10 +32642,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P22" t="n">
         <v>203.7180217169137</v>
@@ -32657,13 +32657,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.6384840500594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>36.92627338448401</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>30.55594983196188</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>38.48106384277807</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831899</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>36.92627338448401</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>36.92627338448403</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>36.97916784721082</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>33.51153056421936</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831901</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K12" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378503</v>
@@ -35506,10 +35506,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L18" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
         <v>366.9313322820405</v>
@@ -35980,10 +35980,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.0719207327586</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K20" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P20" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>117.933366006583</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K21" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
         <v>391.1970995928739</v>
@@ -36217,13 +36217,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q21" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K22" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L22" t="n">
         <v>278.0112915831069</v>
@@ -36290,7 +36290,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O22" t="n">
         <v>262.6644876295069</v>
@@ -36299,7 +36299,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L23" t="n">
         <v>356.8062301067508</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K24" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820405</v>
@@ -36454,7 +36454,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q24" t="n">
         <v>116.4807223308546</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36691,10 +36691,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>443.0068759113673</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q27" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>117.9333660065825</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
         <v>451.0527332560634</v>
@@ -36931,7 +36931,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M32" t="n">
         <v>429.0050109457277</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>117.9333660065825</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
         <v>451.0527332560634</v>
@@ -37168,7 +37168,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922413</v>
       </c>
       <c r="K36" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37402,7 +37402,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q36" t="n">
         <v>326.5580100667037</v>
@@ -37861,7 +37861,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313197</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37882,7 +37882,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38110,7 +38110,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O45" t="n">
-        <v>390.3778271117885</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
@@ -38119,7 +38119,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
